--- a/Health and Fitness/Health.xlsx
+++ b/Health and Fitness/Health.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\Semester 6\GT Project\Diseases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,67 +26,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>https://www.purdueglobal.edu/blog/psychology/applied-behavior-analysis/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/psychology/children-stress/</t>
-  </si>
-  <si>
-    <t>https://purdueglobal.edu/blog/psychology/bcba-vs-bcaba/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/psychology/substance-abuse-facts-statistics-infographic/</t>
-  </si>
-  <si>
-    <t>https://purdueglobal.edu/blog/psychology/substance-use-disorder-resources/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/psychology/opioid-epidemic-shortage-addiction-counselors-national-crisis/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/psychology/careers-working-children-autism-spectrum-disorder/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/psychology/telebehavioral-health-care/</t>
-  </si>
-  <si>
-    <t>https://purdueglobal.edu/blog/psychology/aba-therapy-teletherapy/</t>
-  </si>
-  <si>
-    <t>https://purdueglobal.edu/blog/psychology/i-o-psychology-workplace-trends/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/health-sciences/what-is-mph-degree/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/health-sciences/become-certified-health-education-specialist/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/health-sciences/health-care-administration-career-trends/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/health-sciences/health-education-can-reduce-health-disparities/</t>
-  </si>
-  <si>
-    <t>https://www.purdueglobal.edu/blog/health-sciences/what-can-you-do-with-health-education-promotion-degree/</t>
+    <t>https://fitbottomedgirls.com/2021/11/a-few-of-my-hiking-must-haves/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/08/butterscotch-beer-recipe/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/08/4-ways-to-make-your-home-a-more-positive-space/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/03/ways-to-move-more-as-a-family/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/09/how-to-create-the-perfect-full-body-workout/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/03/the-freshest-new-workouts-plus-one-sweet-deal/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/02/bodyweight-home-workout/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/01/2021-workout-challenge/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/02/how-to-build-hair-confidence-in-your-kids/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2020/12/nutrition-for-new-moms/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2020/09/how-to-raise-kids-without-unconscious-bias/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2020/07/how-to-prepare-your-kids-for-this-uncertain-school-year/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/09/immune-system-tips/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2021/07/how-to-relax-and-find-ease/</t>
+  </si>
+  <si>
+    <t>https://fitbottomedgirls.com/2020/10/this-ritual-will-help-you-deal-with-the-stress-of-2020/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,16 +101,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,107 +389,90 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>